--- a/Excel Workouts - Deep Learning - Regularization, Initialization and Normalization Techniques Workouts and Examples.xlsx
+++ b/Excel Workouts - Deep Learning - Regularization, Initialization and Normalization Techniques Workouts and Examples.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab66e9dcc0b1c5a/Documents/JKU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab66e9dcc0b1c5a/Documents/GitHub/Recommender-System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{B82F756B-3FED-4853-BC50-B077350F255B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{729D800C-1B3F-4FCF-9281-14280F9C0CA7}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{B82F756B-3FED-4853-BC50-B077350F255B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F717BA-5D69-4313-BA48-9495CB503FB8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C52E1A2D-50CE-4D76-9435-AA6445B16058}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C52E1A2D-50CE-4D76-9435-AA6445B16058}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
     <sheet name="List" sheetId="1" r:id="rId2"/>
-    <sheet name="License" sheetId="3" r:id="rId3"/>
+    <sheet name="Backpropagation" sheetId="4" r:id="rId3"/>
+    <sheet name="License" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="288">
   <si>
     <t>Category</t>
   </si>
@@ -602,14 +603,388 @@
     <t>Reference: Research Papers, Large Language Models and Other Theroritical Concepts</t>
   </si>
   <si>
-    <t>Author: Vivekanand R</t>
+    <t>Author: Vivek</t>
+  </si>
+  <si>
+    <t>Description / Use Case</t>
+  </si>
+  <si>
+    <t>Applicable Model Types</t>
+  </si>
+  <si>
+    <t>1. Standard Variants</t>
+  </si>
+  <si>
+    <t>Batch Backpropagation</t>
+  </si>
+  <si>
+    <t>Feedforward NN, CNN, MLP</t>
+  </si>
+  <si>
+    <t>Stochastic Backpropagation</t>
+  </si>
+  <si>
+    <t>Feedforward NN, Online Learning, RL</t>
+  </si>
+  <si>
+    <t>Mini-batch Backpropagation</t>
+  </si>
+  <si>
+    <t>Balance of efficiency and stability.</t>
+  </si>
+  <si>
+    <t>CNN, RNN, Transformers, most deep nets</t>
+  </si>
+  <si>
+    <t>2. Optimizer-Based</t>
+  </si>
+  <si>
+    <t>Momentum / NAG</t>
+  </si>
+  <si>
+    <t>Helps escape local minima with inertia.</t>
+  </si>
+  <si>
+    <t>All NN types (CNN, RNN, MLP, Transformers)</t>
+  </si>
+  <si>
+    <t>Adam / AdamW / RMSProp / AdaGrad / AdaDelta</t>
+  </si>
+  <si>
+    <t>3. Architecture-Specific</t>
+  </si>
+  <si>
+    <t>Backpropagation Through Time (BPTT)</t>
+  </si>
+  <si>
+    <t>Handles time dependencies in RNNs.</t>
+  </si>
+  <si>
+    <t>RNN, LSTM, GRU</t>
+  </si>
+  <si>
+    <t>Truncated BPTT</t>
+  </si>
+  <si>
+    <t>Makes BPTT tractable for long sequences.</t>
+  </si>
+  <si>
+    <t>RNN, LSTM in NLP/speech</t>
+  </si>
+  <si>
+    <t>Backprop Through Structure</t>
+  </si>
+  <si>
+    <t>Works with structured inputs like trees/graphs.</t>
+  </si>
+  <si>
+    <t>Tree-RNN, Graph Neural Networks</t>
+  </si>
+  <si>
+    <t>4. Efficiency-Oriented</t>
+  </si>
+  <si>
+    <t>Gradient Checkpointing</t>
+  </si>
+  <si>
+    <t>Memory-efficient training for deep nets.</t>
+  </si>
+  <si>
+    <t>Large Transformers, ResNets, Vision Transformers</t>
+  </si>
+  <si>
+    <t>Local Backpropagation</t>
+  </si>
+  <si>
+    <t>Layer-wise training, sometimes without global gradient.</t>
+  </si>
+  <si>
+    <t>Modular/Deep NNs, early exit models</t>
+  </si>
+  <si>
+    <t>Synthetic Gradients</t>
+  </si>
+  <si>
+    <t>Enables asynchronous, parallel layer updates.</t>
+  </si>
+  <si>
+    <t>Deep networks (e.g., in reinforcement learning)</t>
+  </si>
+  <si>
+    <t>5. Biologically-Inspired</t>
+  </si>
+  <si>
+    <t>Hebbian Learning</t>
+  </si>
+  <si>
+    <t>Rule-based, non-gradient method.</t>
+  </si>
+  <si>
+    <t>Neuromorphic models, early ANNs</t>
+  </si>
+  <si>
+    <t>Target Propagation</t>
+  </si>
+  <si>
+    <t>Propagates targets rather than gradients.</t>
+  </si>
+  <si>
+    <t>Experimental models, bio-inspired systems</t>
+  </si>
+  <si>
+    <t>Feedback Alignment</t>
+  </si>
+  <si>
+    <t>Uses random feedback weights, more biologically plausible.</t>
+  </si>
+  <si>
+    <t>Experimental shallow/deep networks</t>
+  </si>
+  <si>
+    <t>Difference Target Propagation</t>
+  </si>
+  <si>
+    <t>Improved target propagation variant.</t>
+  </si>
+  <si>
+    <t>Biologically plausible deep models</t>
+  </si>
+  <si>
+    <t>6. Hardware-Conscious</t>
+  </si>
+  <si>
+    <t>Quantized Backpropagation</t>
+  </si>
+  <si>
+    <t>Supports low-precision hardware (e.g., edge devices).</t>
+  </si>
+  <si>
+    <t>CNNs for edge/mobile, TinyML</t>
+  </si>
+  <si>
+    <t>Binary / Ternary Backpropagation</t>
+  </si>
+  <si>
+    <t>Reduces memory and compute; extreme compression.</t>
+  </si>
+  <si>
+    <t>Binary Neural Networks (BNNs), low-power classifiers</t>
+  </si>
+  <si>
+    <t>Spiking Neural Backpropagation</t>
+  </si>
+  <si>
+    <t>Modified for temporal, spike-based signaling.</t>
+  </si>
+  <si>
+    <t>Spiking Neural Networks (SNNs), neuromorphic chips</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>Stable gradients; high accuracy</t>
+  </si>
+  <si>
+    <t>High memory use; slow updates</t>
+  </si>
+  <si>
+    <t>Fast updates; avoids local minima</t>
+  </si>
+  <si>
+    <t>Noisy; unstable convergence</t>
+  </si>
+  <si>
+    <t>Efficient; balances speed and accuracy</t>
+  </si>
+  <si>
+    <t>Needs batch size tuning</t>
+  </si>
+  <si>
+    <t>Faster convergence; smoother updates</t>
+  </si>
+  <si>
+    <t>Requires hyperparameter tuning</t>
+  </si>
+  <si>
+    <t>Ubiquitous in deep learning (esp. Transformers, CNN)</t>
+  </si>
+  <si>
+    <t>Adaptive learning rates; handles sparse gradients</t>
+  </si>
+  <si>
+    <t>Captures sequential dependencies</t>
+  </si>
+  <si>
+    <t>High compute cost; vanishing/exploding gradients</t>
+  </si>
+  <si>
+    <t>Reduces memory/computation load</t>
+  </si>
+  <si>
+    <t>Limited context window</t>
+  </si>
+  <si>
+    <t>Suitable for structured data</t>
+  </si>
+  <si>
+    <t>Complex to implement; less tooling support</t>
+  </si>
+  <si>
+    <t>Saves memory; allows deeper models</t>
+  </si>
+  <si>
+    <t>Extra computation overhead</t>
+  </si>
+  <si>
+    <t>Supports parallelism; layer modularity</t>
+  </si>
+  <si>
+    <t>Less optimal global coordination</t>
+  </si>
+  <si>
+    <t>Enables async updates; speeds up training</t>
+  </si>
+  <si>
+    <t>Requires training extra models; can be unstable</t>
+  </si>
+  <si>
+    <t>Simple; biologically plausible</t>
+  </si>
+  <si>
+    <t>Ineffective for complex deep learning tasks</t>
+  </si>
+  <si>
+    <t>Conceptually plausible biologically</t>
+  </si>
+  <si>
+    <t>Less efficient and accurate</t>
+  </si>
+  <si>
+    <t>Removes need for weight symmetry</t>
+  </si>
+  <si>
+    <t>Lower accuracy than standard backprop</t>
+  </si>
+  <si>
+    <t>Better stability than standard target prop</t>
+  </si>
+  <si>
+    <t>Still experimental; harder to scale</t>
+  </si>
+  <si>
+    <t>Efficient on edge devices; reduced memory</t>
+  </si>
+  <si>
+    <t>Precision loss; reduced accuracy</t>
+  </si>
+  <si>
+    <t>Extremely efficient; ultra-low memory</t>
+  </si>
+  <si>
+    <t>Very hard to train; accuracy drop</t>
+  </si>
+  <si>
+    <t>Energy-efficient; event-driven processing</t>
+  </si>
+  <si>
+    <t>Complex training; special hardware often required</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Updates weights after processing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>entire training dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Updates weights after </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">each training </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>example.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can overfit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; sensitive to settings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Adaptive gradient methods,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> faster convergence.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,6 +1025,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -710,7 +1093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -721,8 +1104,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,7 +1666,7 @@
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="A24" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1293,9 +1677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0AA22D-2A67-42FD-A0B6-D59F88332C4C}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1525,7 +1909,7 @@
       <c r="D13" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2096,10 +2480,392 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D555D374-3E99-4661-8799-551CB901043E}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBEB863-4556-482F-9CA8-96FA987C18E8}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
